--- a/Plan/Data_추출파일/003.로비테이블.xlsx
+++ b/Plan/Data_추출파일/003.로비테이블.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solid8\Desktop\Tiniffing_plan\Plan\Data_추출파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6030BC57-EF23-4069-9B1B-43D464C18640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D8E7C3B-7F20-4859-ADCB-549087447895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A7E73B2A-1EA3-47D8-8CF8-4A68274456B5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{61A1E407-2A30-40F0-9FE0-A03A50AD4BBC}"/>
   </bookViews>
   <sheets>
     <sheet name="003.로비테이블" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="8">
   <si>
     <t>id</t>
   </si>
@@ -57,10 +57,7 @@
     <t>box_image_name</t>
   </si>
   <si>
-    <t>unboxing</t>
-  </si>
-  <si>
-    <t>perfect_boxing</t>
+    <t>black_unboxing</t>
   </si>
 </sst>
 </file>
@@ -423,7 +420,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD5E7F8-3D3E-48B6-980D-ACFAA196C7A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F854F45C-AA23-486F-BD04-DC6AE9DA9692}">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -521,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">

--- a/Plan/Data_추출파일/003.로비테이블.xlsx
+++ b/Plan/Data_추출파일/003.로비테이블.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solid8\Desktop\Tiniffing_plan\Plan\Data_추출파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D8E7C3B-7F20-4859-ADCB-549087447895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D34CFC77-1E47-4863-B5C8-C94B72DAC2E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{61A1E407-2A30-40F0-9FE0-A03A50AD4BBC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5974E678-7DC2-42E5-A181-A92E3D25F9D6}"/>
   </bookViews>
   <sheets>
     <sheet name="003.로비테이블" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
@@ -55,6 +55,18 @@
   </si>
   <si>
     <t>box_image_name</t>
+  </si>
+  <si>
+    <t>1_boxing</t>
+  </si>
+  <si>
+    <t>2_boxing</t>
+  </si>
+  <si>
+    <t>3_boxing</t>
+  </si>
+  <si>
+    <t>unboxing</t>
   </si>
   <si>
     <t>black_unboxing</t>
@@ -420,7 +432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F854F45C-AA23-486F-BD04-DC6AE9DA9692}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C0175C-BF84-488B-BB47-5D03CB49C60B}">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -495,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -518,7 +530,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -541,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -564,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -587,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -610,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -633,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -656,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -679,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -702,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -725,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -748,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -771,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -794,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -817,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -840,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -863,7 +875,7 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -886,7 +898,7 @@
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -909,7 +921,7 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Plan/Data_추출파일/003.로비테이블.xlsx
+++ b/Plan/Data_추출파일/003.로비테이블.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solid8\Desktop\Tiniffing_plan\Plan\Data_추출파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D34CFC77-1E47-4863-B5C8-C94B72DAC2E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68439C19-0935-41AF-941E-160B687DA046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5974E678-7DC2-42E5-A181-A92E3D25F9D6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0C91BE00-D5ED-4021-8E82-E7AA1D906295}"/>
   </bookViews>
   <sheets>
     <sheet name="003.로비테이블" sheetId="1" r:id="rId1"/>
@@ -432,7 +432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C0175C-BF84-488B-BB47-5D03CB49C60B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B1F6E3-8F13-4AD9-BC55-F15AF8DF7F3F}">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -466,7 +466,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -489,7 +489,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -512,7 +512,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -558,7 +558,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -627,7 +627,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -673,7 +673,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -696,7 +696,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -719,7 +719,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -742,7 +742,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -788,7 +788,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -811,7 +811,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -834,7 +834,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -857,7 +857,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -880,7 +880,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>1</v>
